--- a/loaded_influencer_data/ugc.sarita0/ugc.sarita0_video.xlsx
+++ b/loaded_influencer_data/ugc.sarita0/ugc.sarita0_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,2478 +506,2536 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7477864049015934216</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>612400</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8622</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>897</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>😭
+#teamwork #SelfCare #smallcreator #ugccreator #skincare</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1.423905943827564</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.407903331156107</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01600261267145656</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1464728935336382</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7477935658313469185</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>117700</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>193</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Worth every penny ❤️
+#skincare #ugccreator #smallcreator #SelfCare</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2.627867459643161</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.585386576040781</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.04248088360237893</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1639762107051827</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7489724085337984263</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Worth every penny ❤️
+#skincare #ugccreator #smallcreator #SelfCare</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6.934306569343065</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.717761557177615</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.21654501216545</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.24330900243309</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7489426901015039239</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>272</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Thankyouu @Bisleri ❤️ #ugccreator #skincare #smallcreator #selfcare #teamwork</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.858556330110186</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.1164830222622</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7420733078479874</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2023836294130875</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7489248518972935431</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C6" t="n">
+        <v>130</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Thankyouu @Bisleri ❤️ #ugccreator #skincare #smallcreator #selfcare #teamwork</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.793103448275862</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.482758620689655</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.310344827586207</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6206896551724138</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7489062353133178130</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21400</v>
+      </c>
+      <c r="C7" t="n">
+        <v>452</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>56</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>my skin loves this moisturiser so much ❤️
+#yesstyleinfluencers #yesstyle #ugccreator</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.271028037383178</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.11214953271028</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1588785046728972</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2616822429906542</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7489019019924901138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C8" t="n">
+        <v>131</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>use my yesstyle code SARITA90 for extra discount.
+#skintok #skincare #kbeauty #microcreator #SelfCare</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10.39046988749173</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.669755129053607</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.720714758438121</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3970880211780278</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7488650195471813896</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C9" t="n">
+        <v>227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>use my yesstyle code SARITA90 for extra discount.
+#yesstyleinfluencers #yesstyle #ugccreator</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2.130081300813008</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.845528455284553</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2845528455284553</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1626016260162602</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugc.sarita0/video/7488313502617079058</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>175</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Use my yesstyle code SARITA90 for extra discount.
+#skintok #skincare #kbeauty #microcreator #koreanskincare</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2.009803921568627</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.715686274509804</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2843137254901961</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7486826130855480594</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>1058</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>107</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D11" t="n">
         <v>22</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>#sebaceousfilaments #blackhead #porecleansing #pores #cleansingoil #cleansingfoam #skincare #skintok</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>12.19281663516068</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>10.11342155009452</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.079395085066162</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L11" t="n">
         <v>0.4725897920604915</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7486733100156816647</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>284</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>51</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Yesstyle code- SARITA90 for extra 5% discount
 #yesstyleinfluencers #yesstyle #skincare</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>23.94366197183098</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>17.95774647887324</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>5.985915492957746</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L12" t="n">
         <v>2.112676056338028</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7486704269152816402</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>570</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>65</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>7</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Use my yesstyle code SARITA90 for extra 5% discount.
 #SelfCare #smallcreator #ugccreator #skincare</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>14.3859649122807</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>11.40350877192982</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.982456140350877</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L13" t="n">
         <v>1.228070175438597</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7486449147932019986</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>3113</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>230</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>39</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Thankyouu @Scrubs Nepal Flawless #yesstyleinfluencers #yesstyle #skincare #ugccreator #smallcreator</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>8.641182139415355</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>7.38837134596852</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.252810793446836</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>0.3854802441374879</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7486384037662117138</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>26100</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>577</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D15" t="n">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Use my yesstyle code- SARITA90 for extra 5% discount.
 #SelfCare #smallcreator #ugccreator #skincare</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>2.310344827586207</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>2.210727969348659</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.0996168582375479</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>0.05363984674329502</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7485748514727693576</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>1766</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>154</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D16" t="n">
         <v>60</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>55</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>#skincare #skintok #kbeauty #koreanskincare #skincareroutine #7days #retinalserum #acneserum</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>12.11778029445074</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>8.720271800679502</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.397508493771234</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L16" t="n">
         <v>3.114382785956965</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7485366220577934613</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>10100</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>271</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>39</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>🥹
 Use my yesstyle code- SARITA90 for extra 5% discount.
 #SelfCare #smallcreator #ugccreator #skincare</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>3.069306930693069</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>2.683168316831683</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.3861386138613861</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L17" t="n">
         <v>0.198019801980198</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7485184472191601937</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>21800</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>507</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D18" t="n">
         <v>52</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>25</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Use my yesstyle code- SARITA90 for extra 5% discount.
 #yesstyleinfluencers #yesstyle #smallcreator</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>2.564220183486238</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>2.325688073394495</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L18" t="n">
         <v>0.1146788990825688</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7485017731327102226</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>4535</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>150</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>33</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>21</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Use my yesstyle code- SARITA90 for extra 5% discount.
 #yesstyleinfluencers #yesstyle #smallcreator</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>4.035281146637266</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>3.307607497243661</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.7276736493936053</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>0.4630650496141125</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7484630550897102100</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>1686</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>158</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" t="n">
         <v>38</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>12</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>11.62514827995255</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>9.37129300118624</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.253855278766311</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L20" t="n">
         <v>0.7117437722419928</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7484541653479345416</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>12800</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>241</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D21" t="n">
         <v>34</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>14</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>😭
 #seoul1988 #yesstyleinfluencers #yesstyle #smallcreator #skincare #teamwork #SelfCare #ugccreator</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>2.1484375</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>1.8828125</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.265625</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L21" t="n">
         <v>0.109375</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7484432120773872917</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>10700</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>325</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>38</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>56</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>use my yesstylecode-SARITA90 for 5% discount! @YesStyle @YesStyleInfluencers @KSECRET GLOBAL</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>3.392523364485981</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>3.037383177570093</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.3551401869158878</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>0.5233644859813085</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7483914212889316628</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>10300</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>249</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>31</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>21</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Not a perfect shoot I will make better one next time ....
 Use my yesstyle code - SARITA90 for extra 5% discount</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>2.718446601941748</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>2.41747572815534</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.3009708737864078</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>0.2038834951456311</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7483755715014823169</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>15700</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>487</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>52</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>30</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>@KSECRET GLOBAL @KSECRET Store US #ugccreator #SelfCare #teamwork #skincare #skincare</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>3.43312101910828</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>3.101910828025478</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.3312101910828025</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>0.1910828025477707</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7483514113298091285</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>27900</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>925</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D25" t="n">
         <v>66</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>45</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>This feels so good....
 #yesstyleinfluencers #yesstyle #smallcreator #skincare #teamwork #SelfCare</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>3.551971326164875</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>3.315412186379928</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.2365591397849462</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L25" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7483471054153993489</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>11700</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>502</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>74</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>27</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>This feels so good....
 #yesstyleinfluencers #yesstyle #smallcreator #skincare #teamwork #SelfCare</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>4.923076923076923</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>4.290598290598291</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.6324786324786326</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7483374618477137170</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>4207</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>160</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>24</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>9</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Just wanted to post something so 😂
 #yesstyleinfluencers #yesstyle #smallcreator #skincare #teamwork</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>4.373662942714524</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>3.803185167577847</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.570477775136677</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>0.2139291656762539</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7483029997171559681</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>28100</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>441</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>28</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>24</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Hope it will get better.
 #ugccreator #SelfCare #teamwork #skincare #smallcreator #yesstyle</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>1.669039145907473</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>1.569395017793594</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.099644128113879</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L28" t="n">
         <v>0.08540925266903915</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7482784729431952656</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>6029</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>129</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>9</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Don't make these common mistakes as a acne prone skin person!
 #yesstyleinfluencers #yesstyle #smallcreator</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>2.405042295571405</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>2.139658318129043</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.2653839774423619</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>0.1492784873113286</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7482700941813140756</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>14200</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>206</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>24</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>16</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>💗🎀
 #ugccreator #SelfCare #teamwork #skincare #smallcreator #yesstyle #yesstyleinfluencers</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>1.619718309859155</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>1.450704225352113</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1690140845070423</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>0.1126760563380282</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7481941001964113159</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>6049</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>177</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>16</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>use my code SARITA90 to get extra 5% off in yesstyle. @YesStyle @YesStyleInfluencers #yesstyleinfluencers</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>3.422053231939163</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>2.926103488179864</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.4959497437592991</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L31" t="n">
         <v>0.2645065300049595</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/photo/7481270091368205588</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>2682</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>177</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>30</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>16</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>use my code SARITA90 to get extra 5% off in yesstyle. @YesStyle @YesStyleInfluencers #yesstyleinfluencers</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>7.718120805369128</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>6.599552572706935</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.118568232662192</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>0.5965697240865026</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480937921315360021</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>10400</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>182</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>18</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>19</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>😭
 #ugccreator #SelfCare #teamwork #skincare #smallcreator</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>1.923076923076923</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>1.75</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.1730769230769231</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>0.1826923076923077</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480876874248277265</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>4798</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>139</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>21</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>8</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>This is my therapy ❤️
 #smallcreator #skincare #teamwork #SelfCare #ugccreator</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>3.334722801167153</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>2.897040433513964</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.4376823676531888</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>0.1667361400583577</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480813830746934535</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>2370</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>113</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>18</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>12</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Almost there 😍💗
 #ugccreator #SelfCare #teamwork #skincare #smallcreator</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>5.527426160337553</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>4.767932489451477</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.7594936708860759</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L35" t="n">
         <v>0.5063291139240507</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480578211231976725</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>14600</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>378</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>28</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>23</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Skincare is important but first take care of your gut health too ✨️❤️
 #smallcreator #skincare ##teamwork</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>2.780821917808219</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>2.589041095890411</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1917808219178082</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L36" t="n">
         <v>0.1575342465753425</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480434504746781972</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>8164</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>185</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>35</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>14</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>#SelfCare #teamwork #ugccreator #skincare #smallcreator</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>2.694757471827535</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>2.266046055854973</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.4287114159725625</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>0.171484566389025</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480176453405953300</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>6392</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>142</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>22</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>9</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Get yours from daraz "https://www.daraz.com.np/products/i125189432.html?spm=Seller_NP.24863640.table_online_product.21.20212a97uLojfl" @Patanjali Ayurved Nepal @jai</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>2.565707133917396</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>2.221526908635795</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.344180225281602</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L38" t="n">
         <v>0.1408010012515644</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480105736194870549</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>33300</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>445</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>17</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>17</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>skincare on top ✨️
 #smallcreator #skincare #ugccreator #SelfCare #teamwork</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>1.387387387387387</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>1.336336336336336</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.05105105105105105</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>0.05105105105105105</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7480020245210615060</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>45100</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>911</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>56</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>47</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>#teamwork #SelfCare #ugccreator #skincare #smallcreator</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>2.144124168514412</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>2.019955654101996</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1241685144124169</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>0.1042128603104213</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7479828285875129608</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>2284</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>92</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>20</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>10</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Honestly it's so hard to post consistently ...
 #smallcreator #skincare #ugccreator #SelfCare #teamwork</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>4.903677758318739</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>4.028021015761821</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.8756567425569177</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>0.4378283712784589</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7479774280830504200</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>4402</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>115</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>9</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Honestly it's so hard to post consistently ...
 #smallcreator #skincare #ugccreator #SelfCare #teamwork</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>2.975920036347115</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>2.612448886869605</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.3634711494775102</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>0.2044525215810995</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7479597513847229704</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>1729</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>104</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>18</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>12</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Go on !
 #teamwork #skincare #ugccreator #SelfCare #teamwork @SKIN1004 US @skin1004_influencers</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>7.056101792943899</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>6.015037593984962</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.041064198958936</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>0.6940427993059572</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7479418430085401863</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>49400</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>817</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>73</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Consistency is the key ❤️
 #smallcreator #SelfCare #ugccreator #skincare #teamwork</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>1.720647773279352</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>1.653846153846154</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.06680161943319837</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>0.1477732793522267</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7479392373693271314</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>3895</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>109</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>12</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>8</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>"https://s.daraz.com.np/s.64Yl?cc" Get yours from daraz and @Patanjali Ayurved Nepal @jai #teamwork #skincare</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>3.106546854942234</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>2.798459563543004</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.3080872913992298</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L45" t="n">
         <v>0.2053915275994865</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7479341457002827015</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>3554</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>155</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>26</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>8</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Thankyouu @Patanjali Ayurved Nepal @jai #smallcreator #SelfCare #ugccreator #skincare #teamwork</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H46" t="n">
         <v>5.092853123241419</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>4.361283061339337</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.7315700619020821</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>0.2250984805852561</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7478967159830433044</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>18800</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>413</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>26</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>32</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Maintaing a good and healthy skin barrier is so hard 🥹
 #teamwork #skincare #ugccreator #SelfCare #smallcreator</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>2.335106382978724</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>2.196808510638298</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1382978723404255</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L47" t="n">
         <v>0.1702127659574468</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7478674233627790613</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>4788</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>175</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>26</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>12</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Night skincare routine ✨️ ❤️
 #smallcreator #SelfCare #ugccreator #skincare #teamwork</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>4.197994987468672</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>3.654970760233918</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.5430242272347535</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>0.2506265664160401</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/photo/7478516252219165960</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>2090</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>87</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>13</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>#skincare #ugccreator #SelfCare #smallcreator</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>4.641148325358851</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>4.162679425837321</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.4784688995215311</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>0.6220095693779905</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7478345217880395026</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>11800</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>273</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>26</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>25</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>#skincare #ugccreator #SelfCare #smallcreator</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>2.533898305084746</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>2.313559322033898</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.2203389830508475</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L50" t="n">
         <v>0.211864406779661</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugc.sarita0/video/7478222228958498069</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>9245</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>148</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>21</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>10</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Fr 😓
 #teamwork #skincare #ugccreator #smallcreator #SelfCare</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>1.828015143320714</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>1.600865332612223</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.2271498107084911</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>0.1081665765278529</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7478133870781598996</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>10600</v>
-      </c>
-      <c r="C43" t="n">
-        <v>341</v>
-      </c>
-      <c r="D43" t="n">
-        <v>32</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>34</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>#SelfCare #smallcreator #ugccreator #skincare #teamwork</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>3.518867924528302</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.216981132075472</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.3207547169811321</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477935658313469185</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>37600</v>
-      </c>
-      <c r="C44" t="n">
-        <v>911</v>
-      </c>
-      <c r="D44" t="n">
-        <v>32</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>59</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>#SelfCare #smallcreator #ugccreator #skincare #teamwork</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2.507978723404255</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.422872340425532</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1569148936170213</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477864049015934216</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>600500</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8486</v>
-      </c>
-      <c r="D45" t="n">
-        <v>96</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>891</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>😭
-#teamwork #SelfCare #smallcreator #ugccreator #skincare</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1.429142381348876</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.41315570358035</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.01598667776852623</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.148376353039134</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477764904783596820</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>13100</v>
-      </c>
-      <c r="C46" t="n">
-        <v>194</v>
-      </c>
-      <c r="D46" t="n">
-        <v>23</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>17</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>#skincare #ugccreator #smallcreator #SelfCare #teamwork</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1.656488549618321</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.480916030534351</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1755725190839695</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.1297709923664122</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477596656007990549</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>6345</v>
-      </c>
-      <c r="C47" t="n">
-        <v>155</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>This is your reminder to not skip your skincare!
-#teamwork #SelfCare #smallcreator #ugccreator #skincare</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2.631993695823483</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.442868400315209</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1891252955082742</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.09456264775413711</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477577999362116872</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>18500</v>
-      </c>
-      <c r="C48" t="n">
-        <v>306</v>
-      </c>
-      <c r="D48" t="n">
-        <v>19</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>35</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>you got it now 😒😭
-#skincare #ugccreator #smallcreator #SelfCare #teamwork</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1.756756756756757</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.654054054054054</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.1027027027027027</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477544436541574421</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3092</v>
-      </c>
-      <c r="C49" t="n">
-        <v>149</v>
-      </c>
-      <c r="D49" t="n">
-        <v>33</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>#teamwork #SelfCare #smallcreator #ugccreator #skincare</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5.886157826649418</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.81888745148771</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.067270375161708</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.4851228978007762</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugc.sarita0/video/7477397447875038485</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>8570</v>
-      </c>
-      <c r="C50" t="n">
-        <v>160</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>15</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>#skincare #ugccreator #smallcreator #SelfCare</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.018669778296382</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.866977829638273</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.1516919486581097</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1750291715285881</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
         </is>
       </c>
     </row>
